--- a/.tests/PruebasIniciales.xlsx
+++ b/.tests/PruebasIniciales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="10 elementos"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="182">
   <si>
     <t>Requerimientos</t>
   </si>
@@ -401,6 +401,9 @@
     <t>https://github.com/Complexum/Proyecto-2025A/blob/main/src/samples/N15A.csv</t>
   </si>
   <si>
+    <t>⎛ ∅ ⎞⎛ A,B,C,D,E,F,G,H,I,J,K,L,M,N,O ⎞</t>
+  </si>
+  <si>
     <t>https://github.com/Complexum/Proyecto-2025A/blob/main/src/samples/N10A.csv</t>
   </si>
   <si>
@@ -408,6 +411,12 @@
   </si>
   <si>
     <t>ABCDEFGHIJ_{t+1}|ABCDEFGHIJ_{t}</t>
+  </si>
+  <si>
+    <t>⎛ I ⎞⎛  A,B,C,D,E,F,G,H,J  ⎞</t>
+  </si>
+  <si>
+    <t>⎝ ∅ ⎠⎝ a,b,c,d,e,f,g,h,i,j ⎠</t>
   </si>
   <si>
     <t>ABCDEFGHIJ_{t+1}|ABCDEFGHI_{t}</t>
@@ -562,7 +571,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +609,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Code"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -718,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -744,7 +759,7 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
@@ -756,22 +771,22 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -798,7 +813,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -816,7 +831,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
@@ -831,10 +846,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1141,7 +1159,7 @@
   </sheetPr>
   <dimension ref="A1:Y1197"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1178,7 +1196,7 @@
         <v>71</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="10"/>
@@ -1207,7 +1225,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1333,11 +1351,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0.4727</v>
+      </c>
+      <c r="E5" s="10">
+        <v>73.9162</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1362,7 +1386,9 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="26"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>132</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
       <c r="F6" s="8"/>
@@ -1391,11 +1417,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0.4727</v>
+      </c>
+      <c r="E7" s="10">
+        <v>75.882</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1420,7 +1452,9 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="26"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>132</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
       <c r="F8" s="8"/>
@@ -1449,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="8"/>
@@ -1507,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="8"/>
@@ -1565,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="8"/>
@@ -1623,7 +1657,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="8"/>
@@ -1681,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="8"/>
@@ -1739,7 +1773,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="8"/>
@@ -1797,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="27"/>
@@ -1855,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="8"/>
@@ -1913,7 +1947,7 @@
         <f>IF(A5:A24="","",A5:A24+10)</f>
       </c>
       <c r="B25" s="36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="8"/>
@@ -1971,7 +2005,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="8"/>
@@ -2029,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="8"/>
@@ -2087,7 +2121,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="8"/>
@@ -2145,7 +2179,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="8"/>
@@ -2203,7 +2237,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="8"/>
@@ -2261,7 +2295,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="8"/>
@@ -2319,7 +2353,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="8"/>
@@ -2377,7 +2411,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="8"/>
@@ -2435,7 +2469,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="8"/>
@@ -2493,7 +2527,7 @@
         <f>IF(A5:A24="","",A5:A24+20)</f>
       </c>
       <c r="B45" s="36" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="8"/>
@@ -2551,7 +2585,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="8"/>
@@ -2609,7 +2643,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="8"/>
@@ -2667,7 +2701,7 @@
         <v>24</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="8"/>
@@ -2725,7 +2759,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="8"/>
@@ -2783,7 +2817,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="8"/>
@@ -2841,7 +2875,7 @@
         <v>27</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C57" s="25"/>
       <c r="D57" s="8"/>
@@ -2899,7 +2933,7 @@
         <v>28</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="8"/>
@@ -2957,7 +2991,7 @@
         <v>29</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C61" s="25"/>
       <c r="D61" s="8"/>
@@ -3015,7 +3049,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C63" s="25"/>
       <c r="D63" s="8"/>
@@ -3073,7 +3107,7 @@
         <f>IF(A5:A24="","",A5:A24+30)</f>
       </c>
       <c r="B65" s="36" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="8"/>
@@ -3131,7 +3165,7 @@
         <v>32</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C67" s="25"/>
       <c r="D67" s="8"/>
@@ -3189,7 +3223,7 @@
         <v>33</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="8"/>
@@ -3247,7 +3281,7 @@
         <v>34</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C71" s="25"/>
       <c r="D71" s="8"/>
@@ -3305,7 +3339,7 @@
         <v>35</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C73" s="25"/>
       <c r="D73" s="8"/>
@@ -3363,7 +3397,7 @@
         <v>36</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C75" s="25"/>
       <c r="D75" s="8"/>
@@ -3421,7 +3455,7 @@
         <v>37</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C77" s="25"/>
       <c r="D77" s="8"/>
@@ -3479,7 +3513,7 @@
         <v>38</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C79" s="25"/>
       <c r="D79" s="8"/>
@@ -3537,7 +3571,7 @@
         <v>39</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C81" s="25"/>
       <c r="D81" s="8"/>
@@ -3595,7 +3629,7 @@
         <v>40</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="8"/>
@@ -3653,7 +3687,7 @@
         <f>IF(A5:A24="","",A5:A24+40)</f>
       </c>
       <c r="B85" s="36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C85" s="25"/>
       <c r="D85" s="8"/>
@@ -3711,7 +3745,7 @@
         <v>42</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C87" s="25"/>
       <c r="D87" s="8"/>
@@ -3769,7 +3803,7 @@
         <v>43</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C89" s="25"/>
       <c r="D89" s="8"/>
@@ -3827,7 +3861,7 @@
         <v>44</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C91" s="25"/>
       <c r="D91" s="8"/>
@@ -3885,7 +3919,7 @@
         <v>45</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C93" s="25"/>
       <c r="D93" s="8"/>
@@ -3943,7 +3977,7 @@
         <v>46</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C95" s="25"/>
       <c r="D95" s="8"/>
@@ -4001,7 +4035,7 @@
         <v>47</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C97" s="25"/>
       <c r="D97" s="8"/>
@@ -4059,7 +4093,7 @@
         <v>48</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C99" s="25"/>
       <c r="D99" s="8"/>
@@ -4117,7 +4151,7 @@
         <v>49</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C101" s="25"/>
       <c r="D101" s="8"/>
@@ -4175,7 +4209,7 @@
         <v>50</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C103" s="25"/>
       <c r="D103" s="8"/>
@@ -33758,7 +33792,7 @@
   </sheetPr>
   <dimension ref="A1:Y505"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33952,7 +33986,9 @@
       <c r="B5" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
